--- a/biology/Zoologie/Bruche_(insecte)/Bruche_(insecte).xlsx
+++ b/biology/Zoologie/Bruche_(insecte)/Bruche_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bruches sont de petits insectes de 3 à 5 mm de long de l'ordre des coléoptères, dont les larves vivent à l'intérieur de graines et de fruits de diverses espèces végétales, notamment les graines de fabacées (ou légumineuses). Le terme s'applique à différentes espèces appartenant à plusieurs genres de la famille des Chrysomélidés. Le genre principal est le genre Bruchus.
-En agriculture, ces insectes peuvent causer des dégâts aux réserves de graines[1], notamment dans les pays chauds. Leur activité est très réduite voire annihilée par le froid. Un moyen de lutte consiste à congeler les semences lors de gelées ou dans un congélateur. Un procédé par la chimie de synthèse consiste à traiter les cultures à l'aide d'insecticides lors de la floraison, et à désinfecter les graines et les locaux de stockage.
+En agriculture, ces insectes peuvent causer des dégâts aux réserves de graines, notamment dans les pays chauds. Leur activité est très réduite voire annihilée par le froid. Un moyen de lutte consiste à congeler les semences lors de gelées ou dans un congélateur. Un procédé par la chimie de synthèse consiste à traiter les cultures à l'aide d'insecticides lors de la floraison, et à désinfecter les graines et les locaux de stockage.
 </t>
         </is>
       </c>
@@ -512,18 +524,20 @@
           <t>Espèces appelées bruches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bruche brésilienne - Zabrotes subfasciatus [2]
-Bruche chinoise - Callosobruchus chinensis[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bruche brésilienne - Zabrotes subfasciatus 
+Bruche chinoise - Callosobruchus chinensis
 Bruche de la fève - Bruchus rufimanus
-Bruche de la gourgane - Bruchus rufimanus[3]
-Bruche du haricot - Acanthoscelides obtectus[3]
+Bruche de la gourgane - Bruchus rufimanus
+Bruche du haricot - Acanthoscelides obtectus
 Bruche de la lentille - Bruchus lentis
 Bruche des lentilles - Bruchus signaticornis
-Bruche du pois - Bruchus pisorum[3]
-Bruche à quatre taches - Callosobruchus maculatus[2]
-Bruche de la vesce - Bruchus brachialis[3]</t>
+Bruche du pois - Bruchus pisorum
+Bruche à quatre taches - Callosobruchus maculatus
+Bruche de la vesce - Bruchus brachialis</t>
         </is>
       </c>
     </row>
